--- a/mod2pcm/MOD2PCMCorrelation.xlsx
+++ b/mod2pcm/MOD2PCMCorrelation.xlsx
@@ -988,7 +988,7 @@
   <dimension ref="A1:D37"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
